--- a/import_template/guidelines/Import Attendance Record Guideline.xlsx
+++ b/import_template/guidelines/Import Attendance Record Guideline.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Worknest\import_template\guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40018011-4A60-4143-9224-3C6ED8F3F08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A78A72F-6359-4078-BA47-C6AC026F548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
   </bookViews>
   <sheets>
-    <sheet name="Import Employee Guideline" sheetId="1" r:id="rId1"/>
+    <sheet name="Import Attendance Guideline" sheetId="1" r:id="rId1"/>
     <sheet name="Sample CSV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>

--- a/import_template/guidelines/Import Attendance Record Guideline.xlsx
+++ b/import_template/guidelines/Import Attendance Record Guideline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Worknest\import_template\guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A78A72F-6359-4078-BA47-C6AC026F548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC53D3-3628-44AE-B409-476777E23989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
   </bookViews>
   <sheets>
     <sheet name="Import Attendance Guideline" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Column</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Date of time in).</t>
+  </si>
+  <si>
+    <t>ATTENDANCE_ID</t>
+  </si>
+  <si>
+    <t>Database ID of the attendance record for updating.</t>
   </si>
 </sst>
 </file>
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +184,7 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D86087-82FB-46F5-B0C7-F4F9CF2E2675}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +533,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -535,35 +542,35 @@
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -572,32 +579,32 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -606,6 +613,23 @@
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -617,52 +641,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052B8E4-2C96-4091-903E-43F5A3C15A8A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6">
         <v>44628</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="7">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>34766</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="7">
         <v>0.72916666666666663</v>
       </c>
     </row>
